--- a/Descargas/R15_Juzgado De Garantia De Chillan_Ingresos Causas Por Materia_2020-Octubre.xlsx
+++ b/Descargas/R15_Juzgado De Garantia De Chillan_Ingresos Causas Por Materia_2020-Octubre.xlsx
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="B37" s="65">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38">
@@ -791,7 +791,7 @@
         </is>
       </c>
       <c r="B59" s="65">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="60">
